--- a/AirBnb/House Sales.xlsx
+++ b/AirBnb/House Sales.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alastair.tyson\Documents\GitHub\Datasets\AirBnb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F65B670-08E4-4017-81ED-FD6EBF024D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9DB961-2824-489C-A22F-56ED95021BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="house_sales" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">house_sales!$G$1:$I$384</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2035,7 +2048,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2561,7 +2574,9 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{0C39257D-8E6D-4991-8A5A-036AEEA0E612}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2869,11 +2884,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2938,7 +2953,7 @@
       <c r="I2">
         <v>92252</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2970,7 +2985,7 @@
       <c r="I3">
         <v>92252</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3002,7 +3017,7 @@
       <c r="I4">
         <v>92252</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3034,7 +3049,7 @@
       <c r="I5">
         <v>92252</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3066,7 +3081,7 @@
       <c r="I6">
         <v>92252</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3098,7 +3113,7 @@
       <c r="I7">
         <v>92252</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3130,7 +3145,7 @@
       <c r="I8">
         <v>92252</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3162,7 +3177,7 @@
       <c r="I9">
         <v>92252</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3194,7 +3209,7 @@
       <c r="I10">
         <v>92252</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3226,7 +3241,7 @@
       <c r="I11">
         <v>92252</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3258,7 +3273,7 @@
       <c r="I12">
         <v>92252</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3290,7 +3305,7 @@
       <c r="I13">
         <v>92252</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3322,7 +3337,7 @@
       <c r="I14">
         <v>92252</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3354,7 +3369,7 @@
       <c r="I15">
         <v>92252</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3386,7 +3401,7 @@
       <c r="I16">
         <v>92252</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3418,7 +3433,7 @@
       <c r="I17">
         <v>92252</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3450,7 +3465,7 @@
       <c r="I18">
         <v>92252</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3482,7 +3497,7 @@
       <c r="I19">
         <v>92252</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3514,7 +3529,7 @@
       <c r="I20">
         <v>92252</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3546,7 +3561,7 @@
       <c r="I21">
         <v>92252</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3578,7 +3593,7 @@
       <c r="I22">
         <v>92252</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3610,7 +3625,7 @@
       <c r="I23">
         <v>92252</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3642,7 +3657,7 @@
       <c r="I24">
         <v>92252</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3674,7 +3689,7 @@
       <c r="I25">
         <v>92252</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3706,7 +3721,7 @@
       <c r="I26">
         <v>92252</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3738,7 +3753,7 @@
       <c r="I27">
         <v>92252</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3770,7 +3785,7 @@
       <c r="I28">
         <v>92252</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3802,7 +3817,7 @@
       <c r="I29">
         <v>92252</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3834,7 +3849,7 @@
       <c r="I30">
         <v>92252</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3863,7 +3878,7 @@
       <c r="I31">
         <v>92252</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3895,7 +3910,7 @@
       <c r="I32">
         <v>92252</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3927,7 +3942,7 @@
       <c r="I33">
         <v>92252</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3959,7 +3974,7 @@
       <c r="I34">
         <v>92252</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3991,7 +4006,7 @@
       <c r="I35">
         <v>92252</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4020,7 +4035,7 @@
       <c r="I36">
         <v>92252</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4052,7 +4067,7 @@
       <c r="I37">
         <v>92252</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4084,7 +4099,7 @@
       <c r="I38">
         <v>92252</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4116,7 +4131,7 @@
       <c r="I39">
         <v>92252</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4148,7 +4163,7 @@
       <c r="I40">
         <v>92252</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4180,7 +4195,7 @@
       <c r="I41">
         <v>92252</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4212,7 +4227,7 @@
       <c r="I42">
         <v>92252</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4244,7 +4259,7 @@
       <c r="I43">
         <v>92252</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4276,7 +4291,7 @@
       <c r="I44">
         <v>92252</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4308,7 +4323,7 @@
       <c r="I45">
         <v>92252</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4340,7 +4355,7 @@
       <c r="I46">
         <v>92252</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4372,7 +4387,7 @@
       <c r="I47">
         <v>92252</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4404,7 +4419,7 @@
       <c r="I48">
         <v>92252</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4436,7 +4451,7 @@
       <c r="I49">
         <v>92252</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4468,7 +4483,7 @@
       <c r="I50">
         <v>92252</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4500,7 +4515,7 @@
       <c r="I51">
         <v>92252</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4532,7 +4547,7 @@
       <c r="I52">
         <v>92252</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4564,7 +4579,7 @@
       <c r="I53">
         <v>92252</v>
       </c>
-      <c r="J53">
+      <c r="J53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4596,7 +4611,7 @@
       <c r="I54">
         <v>92252</v>
       </c>
-      <c r="J54">
+      <c r="J54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4628,7 +4643,7 @@
       <c r="I55">
         <v>92252</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4660,7 +4675,7 @@
       <c r="I56">
         <v>92252</v>
       </c>
-      <c r="J56">
+      <c r="J56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4692,7 +4707,7 @@
       <c r="I57">
         <v>92252</v>
       </c>
-      <c r="J57">
+      <c r="J57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4724,7 +4739,7 @@
       <c r="I58">
         <v>92252</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4756,7 +4771,7 @@
       <c r="I59">
         <v>92252</v>
       </c>
-      <c r="J59">
+      <c r="J59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4788,7 +4803,7 @@
       <c r="I60">
         <v>92252</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4820,7 +4835,7 @@
       <c r="I61">
         <v>92252</v>
       </c>
-      <c r="J61">
+      <c r="J61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4852,7 +4867,7 @@
       <c r="I62">
         <v>92252</v>
       </c>
-      <c r="J62">
+      <c r="J62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4884,7 +4899,7 @@
       <c r="I63">
         <v>92252</v>
       </c>
-      <c r="J63">
+      <c r="J63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4916,7 +4931,7 @@
       <c r="I64">
         <v>92252</v>
       </c>
-      <c r="J64">
+      <c r="J64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4948,7 +4963,7 @@
       <c r="I65">
         <v>92252</v>
       </c>
-      <c r="J65">
+      <c r="J65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4980,7 +4995,7 @@
       <c r="I66">
         <v>92252</v>
       </c>
-      <c r="J66">
+      <c r="J66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5009,7 +5024,7 @@
       <c r="I67">
         <v>92252</v>
       </c>
-      <c r="J67">
+      <c r="J67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5038,7 +5053,7 @@
       <c r="I68">
         <v>92252</v>
       </c>
-      <c r="J68">
+      <c r="J68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5070,7 +5085,7 @@
       <c r="I69">
         <v>92252</v>
       </c>
-      <c r="J69">
+      <c r="J69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5102,7 +5117,7 @@
       <c r="I70">
         <v>92252</v>
       </c>
-      <c r="J70">
+      <c r="J70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5134,7 +5149,7 @@
       <c r="I71">
         <v>92252</v>
       </c>
-      <c r="J71">
+      <c r="J71" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5166,7 +5181,7 @@
       <c r="I72">
         <v>92252</v>
       </c>
-      <c r="J72">
+      <c r="J72" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5198,7 +5213,7 @@
       <c r="I73">
         <v>92252</v>
       </c>
-      <c r="J73">
+      <c r="J73" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5230,7 +5245,7 @@
       <c r="I74">
         <v>92252</v>
       </c>
-      <c r="J74">
+      <c r="J74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5262,7 +5277,7 @@
       <c r="I75">
         <v>92284</v>
       </c>
-      <c r="J75">
+      <c r="J75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5294,7 +5309,7 @@
       <c r="I76">
         <v>92284</v>
       </c>
-      <c r="J76">
+      <c r="J76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5323,7 +5338,7 @@
       <c r="I77">
         <v>92284</v>
       </c>
-      <c r="J77">
+      <c r="J77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5355,7 +5370,7 @@
       <c r="I78">
         <v>92284</v>
       </c>
-      <c r="J78">
+      <c r="J78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5387,7 +5402,7 @@
       <c r="I79">
         <v>92284</v>
       </c>
-      <c r="J79">
+      <c r="J79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5419,7 +5434,7 @@
       <c r="I80">
         <v>92284</v>
       </c>
-      <c r="J80">
+      <c r="J80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5451,7 +5466,7 @@
       <c r="I81">
         <v>92284</v>
       </c>
-      <c r="J81">
+      <c r="J81" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5483,7 +5498,7 @@
       <c r="I82">
         <v>92284</v>
       </c>
-      <c r="J82">
+      <c r="J82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5515,7 +5530,7 @@
       <c r="I83">
         <v>92284</v>
       </c>
-      <c r="J83">
+      <c r="J83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5547,7 +5562,7 @@
       <c r="I84">
         <v>92284</v>
       </c>
-      <c r="J84">
+      <c r="J84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5579,7 +5594,7 @@
       <c r="I85">
         <v>92284</v>
       </c>
-      <c r="J85">
+      <c r="J85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5611,7 +5626,7 @@
       <c r="I86">
         <v>92284</v>
       </c>
-      <c r="J86">
+      <c r="J86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5643,7 +5658,7 @@
       <c r="I87">
         <v>92284</v>
       </c>
-      <c r="J87">
+      <c r="J87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5675,7 +5690,7 @@
       <c r="I88">
         <v>92284</v>
       </c>
-      <c r="J88">
+      <c r="J88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5707,7 +5722,7 @@
       <c r="I89">
         <v>92284</v>
       </c>
-      <c r="J89">
+      <c r="J89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5739,7 +5754,7 @@
       <c r="I90">
         <v>92284</v>
       </c>
-      <c r="J90">
+      <c r="J90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5771,7 +5786,7 @@
       <c r="I91">
         <v>92284</v>
       </c>
-      <c r="J91">
+      <c r="J91" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5803,7 +5818,7 @@
       <c r="I92">
         <v>92284</v>
       </c>
-      <c r="J92">
+      <c r="J92" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5835,7 +5850,7 @@
       <c r="I93">
         <v>92284</v>
       </c>
-      <c r="J93">
+      <c r="J93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5867,7 +5882,7 @@
       <c r="I94">
         <v>92284</v>
       </c>
-      <c r="J94">
+      <c r="J94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5899,7 +5914,7 @@
       <c r="I95">
         <v>92284</v>
       </c>
-      <c r="J95">
+      <c r="J95" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5931,7 +5946,7 @@
       <c r="I96">
         <v>92284</v>
       </c>
-      <c r="J96">
+      <c r="J96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5963,7 +5978,7 @@
       <c r="I97">
         <v>92284</v>
       </c>
-      <c r="J97">
+      <c r="J97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5995,7 +6010,7 @@
       <c r="I98">
         <v>92284</v>
       </c>
-      <c r="J98">
+      <c r="J98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6027,7 +6042,7 @@
       <c r="I99">
         <v>92284</v>
       </c>
-      <c r="J99">
+      <c r="J99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6059,7 +6074,7 @@
       <c r="I100">
         <v>92284</v>
       </c>
-      <c r="J100">
+      <c r="J100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6091,7 +6106,7 @@
       <c r="I101">
         <v>92284</v>
       </c>
-      <c r="J101">
+      <c r="J101" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6123,7 +6138,7 @@
       <c r="I102">
         <v>92284</v>
       </c>
-      <c r="J102">
+      <c r="J102" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6155,7 +6170,7 @@
       <c r="I103">
         <v>92284</v>
       </c>
-      <c r="J103">
+      <c r="J103" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6187,7 +6202,7 @@
       <c r="I104">
         <v>92284</v>
       </c>
-      <c r="J104">
+      <c r="J104" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6219,7 +6234,7 @@
       <c r="I105">
         <v>92284</v>
       </c>
-      <c r="J105">
+      <c r="J105" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6251,7 +6266,7 @@
       <c r="I106">
         <v>92284</v>
       </c>
-      <c r="J106">
+      <c r="J106" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6283,7 +6298,7 @@
       <c r="I107">
         <v>92284</v>
       </c>
-      <c r="J107">
+      <c r="J107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6315,7 +6330,7 @@
       <c r="I108">
         <v>92284</v>
       </c>
-      <c r="J108">
+      <c r="J108" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6344,7 +6359,7 @@
       <c r="I109">
         <v>92284</v>
       </c>
-      <c r="J109">
+      <c r="J109" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6373,7 +6388,7 @@
       <c r="I110">
         <v>92284</v>
       </c>
-      <c r="J110">
+      <c r="J110" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6405,7 +6420,7 @@
       <c r="I111">
         <v>92284</v>
       </c>
-      <c r="J111">
+      <c r="J111" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6437,7 +6452,7 @@
       <c r="I112">
         <v>92284</v>
       </c>
-      <c r="J112">
+      <c r="J112" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6469,7 +6484,7 @@
       <c r="I113">
         <v>92284</v>
       </c>
-      <c r="J113">
+      <c r="J113" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6501,7 +6516,7 @@
       <c r="I114">
         <v>92284</v>
       </c>
-      <c r="J114">
+      <c r="J114" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6533,7 +6548,7 @@
       <c r="I115">
         <v>92284</v>
       </c>
-      <c r="J115">
+      <c r="J115" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6565,7 +6580,7 @@
       <c r="I116">
         <v>92284</v>
       </c>
-      <c r="J116">
+      <c r="J116" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6597,7 +6612,7 @@
       <c r="I117">
         <v>92284</v>
       </c>
-      <c r="J117">
+      <c r="J117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6629,7 +6644,7 @@
       <c r="I118">
         <v>92284</v>
       </c>
-      <c r="J118">
+      <c r="J118" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6661,7 +6676,7 @@
       <c r="I119">
         <v>92284</v>
       </c>
-      <c r="J119">
+      <c r="J119" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6693,7 +6708,7 @@
       <c r="I120">
         <v>92284</v>
       </c>
-      <c r="J120">
+      <c r="J120" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6725,7 +6740,7 @@
       <c r="I121">
         <v>92284</v>
       </c>
-      <c r="J121">
+      <c r="J121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6757,7 +6772,7 @@
       <c r="I122">
         <v>92284</v>
       </c>
-      <c r="J122">
+      <c r="J122" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6789,7 +6804,7 @@
       <c r="I123">
         <v>92284</v>
       </c>
-      <c r="J123">
+      <c r="J123" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6821,7 +6836,7 @@
       <c r="I124">
         <v>92284</v>
       </c>
-      <c r="J124">
+      <c r="J124" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6853,7 +6868,7 @@
       <c r="I125">
         <v>92284</v>
       </c>
-      <c r="J125">
+      <c r="J125" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6885,7 +6900,7 @@
       <c r="I126">
         <v>92284</v>
       </c>
-      <c r="J126">
+      <c r="J126" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6917,7 +6932,7 @@
       <c r="I127">
         <v>92284</v>
       </c>
-      <c r="J127">
+      <c r="J127" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6949,7 +6964,7 @@
       <c r="I128">
         <v>92284</v>
       </c>
-      <c r="J128">
+      <c r="J128" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6981,7 +6996,7 @@
       <c r="I129">
         <v>92284</v>
       </c>
-      <c r="J129">
+      <c r="J129" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7013,7 +7028,7 @@
       <c r="I130">
         <v>92284</v>
       </c>
-      <c r="J130">
+      <c r="J130" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7045,7 +7060,7 @@
       <c r="I131">
         <v>92284</v>
       </c>
-      <c r="J131">
+      <c r="J131" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7077,7 +7092,7 @@
       <c r="I132">
         <v>92284</v>
       </c>
-      <c r="J132">
+      <c r="J132" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7109,7 +7124,7 @@
       <c r="I133">
         <v>92284</v>
       </c>
-      <c r="J133">
+      <c r="J133" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7141,7 +7156,7 @@
       <c r="I134">
         <v>92284</v>
       </c>
-      <c r="J134">
+      <c r="J134" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7173,7 +7188,7 @@
       <c r="I135">
         <v>92284</v>
       </c>
-      <c r="J135">
+      <c r="J135" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7205,7 +7220,7 @@
       <c r="I136">
         <v>92284</v>
       </c>
-      <c r="J136">
+      <c r="J136" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7237,7 +7252,7 @@
       <c r="I137">
         <v>92284</v>
       </c>
-      <c r="J137">
+      <c r="J137" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7269,7 +7284,7 @@
       <c r="I138">
         <v>92284</v>
       </c>
-      <c r="J138">
+      <c r="J138" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7301,7 +7316,7 @@
       <c r="I139">
         <v>92284</v>
       </c>
-      <c r="J139">
+      <c r="J139" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7333,7 +7348,7 @@
       <c r="I140">
         <v>92284</v>
       </c>
-      <c r="J140">
+      <c r="J140" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7365,7 +7380,7 @@
       <c r="I141">
         <v>92284</v>
       </c>
-      <c r="J141">
+      <c r="J141" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7397,7 +7412,7 @@
       <c r="I142">
         <v>92284</v>
       </c>
-      <c r="J142">
+      <c r="J142" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7429,7 +7444,7 @@
       <c r="I143">
         <v>92284</v>
       </c>
-      <c r="J143">
+      <c r="J143" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7461,7 +7476,7 @@
       <c r="I144">
         <v>92284</v>
       </c>
-      <c r="J144">
+      <c r="J144" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7493,7 +7508,7 @@
       <c r="I145">
         <v>92284</v>
       </c>
-      <c r="J145">
+      <c r="J145" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7525,7 +7540,7 @@
       <c r="I146">
         <v>92284</v>
       </c>
-      <c r="J146">
+      <c r="J146" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7557,7 +7572,7 @@
       <c r="I147">
         <v>92284</v>
       </c>
-      <c r="J147">
+      <c r="J147" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7589,7 +7604,7 @@
       <c r="I148">
         <v>92284</v>
       </c>
-      <c r="J148">
+      <c r="J148" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7621,7 +7636,7 @@
       <c r="I149">
         <v>92284</v>
       </c>
-      <c r="J149">
+      <c r="J149" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7653,7 +7668,7 @@
       <c r="I150">
         <v>92284</v>
       </c>
-      <c r="J150">
+      <c r="J150" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7685,7 +7700,7 @@
       <c r="I151">
         <v>92284</v>
       </c>
-      <c r="J151">
+      <c r="J151" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7717,7 +7732,7 @@
       <c r="I152">
         <v>92284</v>
       </c>
-      <c r="J152">
+      <c r="J152" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7749,7 +7764,7 @@
       <c r="I153">
         <v>92284</v>
       </c>
-      <c r="J153">
+      <c r="J153" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7781,7 +7796,7 @@
       <c r="I154">
         <v>92284</v>
       </c>
-      <c r="J154">
+      <c r="J154" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7813,7 +7828,7 @@
       <c r="I155">
         <v>92284</v>
       </c>
-      <c r="J155">
+      <c r="J155" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7842,7 +7857,7 @@
       <c r="I156">
         <v>92284</v>
       </c>
-      <c r="J156">
+      <c r="J156" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7874,7 +7889,7 @@
       <c r="I157">
         <v>92284</v>
       </c>
-      <c r="J157">
+      <c r="J157" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7906,7 +7921,7 @@
       <c r="I158">
         <v>92284</v>
       </c>
-      <c r="J158">
+      <c r="J158" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7938,7 +7953,7 @@
       <c r="I159">
         <v>92284</v>
       </c>
-      <c r="J159">
+      <c r="J159" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7970,7 +7985,7 @@
       <c r="I160">
         <v>92284</v>
       </c>
-      <c r="J160">
+      <c r="J160" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8002,7 +8017,7 @@
       <c r="I161">
         <v>92284</v>
       </c>
-      <c r="J161">
+      <c r="J161" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8034,7 +8049,7 @@
       <c r="I162">
         <v>92284</v>
       </c>
-      <c r="J162">
+      <c r="J162" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8066,7 +8081,7 @@
       <c r="I163">
         <v>92284</v>
       </c>
-      <c r="J163">
+      <c r="J163" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8098,7 +8113,7 @@
       <c r="I164">
         <v>92284</v>
       </c>
-      <c r="J164">
+      <c r="J164" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8130,7 +8145,7 @@
       <c r="I165">
         <v>92284</v>
       </c>
-      <c r="J165">
+      <c r="J165" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8159,7 +8174,7 @@
       <c r="I166">
         <v>92284</v>
       </c>
-      <c r="J166">
+      <c r="J166" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8191,7 +8206,7 @@
       <c r="I167">
         <v>92284</v>
       </c>
-      <c r="J167">
+      <c r="J167" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8223,7 +8238,7 @@
       <c r="I168">
         <v>92284</v>
       </c>
-      <c r="J168">
+      <c r="J168" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8255,7 +8270,7 @@
       <c r="I169">
         <v>92284</v>
       </c>
-      <c r="J169">
+      <c r="J169" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8287,7 +8302,7 @@
       <c r="I170">
         <v>92284</v>
       </c>
-      <c r="J170">
+      <c r="J170" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8319,7 +8334,7 @@
       <c r="I171">
         <v>92284</v>
       </c>
-      <c r="J171">
+      <c r="J171" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8351,7 +8366,7 @@
       <c r="I172">
         <v>92284</v>
       </c>
-      <c r="J172">
+      <c r="J172" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8383,7 +8398,7 @@
       <c r="I173">
         <v>92284</v>
       </c>
-      <c r="J173">
+      <c r="J173" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8415,7 +8430,7 @@
       <c r="I174">
         <v>92284</v>
       </c>
-      <c r="J174">
+      <c r="J174" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8447,7 +8462,7 @@
       <c r="I175">
         <v>92284</v>
       </c>
-      <c r="J175">
+      <c r="J175" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8479,7 +8494,7 @@
       <c r="I176">
         <v>92284</v>
       </c>
-      <c r="J176">
+      <c r="J176" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8511,7 +8526,7 @@
       <c r="I177">
         <v>92284</v>
       </c>
-      <c r="J177">
+      <c r="J177" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8543,7 +8558,7 @@
       <c r="I178">
         <v>92284</v>
       </c>
-      <c r="J178">
+      <c r="J178" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8575,7 +8590,7 @@
       <c r="I179">
         <v>92284</v>
       </c>
-      <c r="J179">
+      <c r="J179" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8604,7 +8619,7 @@
       <c r="I180">
         <v>92284</v>
       </c>
-      <c r="J180">
+      <c r="J180" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8636,7 +8651,7 @@
       <c r="I181">
         <v>92284</v>
       </c>
-      <c r="J181">
+      <c r="J181" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8668,7 +8683,7 @@
       <c r="I182">
         <v>92284</v>
       </c>
-      <c r="J182">
+      <c r="J182" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8700,7 +8715,7 @@
       <c r="I183">
         <v>92284</v>
       </c>
-      <c r="J183">
+      <c r="J183" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8729,7 +8744,7 @@
       <c r="I184">
         <v>92284</v>
       </c>
-      <c r="J184">
+      <c r="J184" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8761,7 +8776,7 @@
       <c r="I185">
         <v>92284</v>
       </c>
-      <c r="J185">
+      <c r="J185" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8793,7 +8808,7 @@
       <c r="I186">
         <v>92284</v>
       </c>
-      <c r="J186">
+      <c r="J186" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8825,7 +8840,7 @@
       <c r="I187">
         <v>92284</v>
       </c>
-      <c r="J187">
+      <c r="J187" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8854,7 +8869,7 @@
       <c r="I188">
         <v>92284</v>
       </c>
-      <c r="J188">
+      <c r="J188" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8886,7 +8901,7 @@
       <c r="I189">
         <v>92284</v>
       </c>
-      <c r="J189">
+      <c r="J189" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8918,7 +8933,7 @@
       <c r="I190">
         <v>92284</v>
       </c>
-      <c r="J190">
+      <c r="J190" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8950,7 +8965,7 @@
       <c r="I191">
         <v>92284</v>
       </c>
-      <c r="J191">
+      <c r="J191" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8982,7 +8997,7 @@
       <c r="I192">
         <v>92314</v>
       </c>
-      <c r="J192">
+      <c r="J192" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9014,7 +9029,7 @@
       <c r="I193">
         <v>92314</v>
       </c>
-      <c r="J193">
+      <c r="J193" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9046,7 +9061,7 @@
       <c r="I194">
         <v>92314</v>
       </c>
-      <c r="J194">
+      <c r="J194" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9078,7 +9093,7 @@
       <c r="I195">
         <v>92314</v>
       </c>
-      <c r="J195">
+      <c r="J195" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9110,7 +9125,7 @@
       <c r="I196">
         <v>92314</v>
       </c>
-      <c r="J196">
+      <c r="J196" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9142,7 +9157,7 @@
       <c r="I197">
         <v>92314</v>
       </c>
-      <c r="J197">
+      <c r="J197" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9174,7 +9189,7 @@
       <c r="I198">
         <v>92314</v>
       </c>
-      <c r="J198">
+      <c r="J198" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9206,7 +9221,7 @@
       <c r="I199">
         <v>92314</v>
       </c>
-      <c r="J199">
+      <c r="J199" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9238,7 +9253,7 @@
       <c r="I200">
         <v>92314</v>
       </c>
-      <c r="J200">
+      <c r="J200" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9270,7 +9285,7 @@
       <c r="I201">
         <v>92314</v>
       </c>
-      <c r="J201">
+      <c r="J201" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9302,7 +9317,7 @@
       <c r="I202">
         <v>92314</v>
       </c>
-      <c r="J202">
+      <c r="J202" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9331,7 +9346,7 @@
       <c r="I203">
         <v>92314</v>
       </c>
-      <c r="J203">
+      <c r="J203" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9360,7 +9375,7 @@
       <c r="I204">
         <v>92314</v>
       </c>
-      <c r="J204">
+      <c r="J204" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9392,7 +9407,7 @@
       <c r="I205">
         <v>92314</v>
       </c>
-      <c r="J205">
+      <c r="J205" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9424,7 +9439,7 @@
       <c r="I206">
         <v>92314</v>
       </c>
-      <c r="J206">
+      <c r="J206" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9456,7 +9471,7 @@
       <c r="I207">
         <v>92314</v>
       </c>
-      <c r="J207">
+      <c r="J207" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9485,7 +9500,7 @@
       <c r="I208">
         <v>92314</v>
       </c>
-      <c r="J208">
+      <c r="J208" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9517,7 +9532,7 @@
       <c r="I209">
         <v>92314</v>
       </c>
-      <c r="J209">
+      <c r="J209" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9546,7 +9561,7 @@
       <c r="I210">
         <v>92314</v>
       </c>
-      <c r="J210">
+      <c r="J210" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9578,7 +9593,7 @@
       <c r="I211">
         <v>92314</v>
       </c>
-      <c r="J211">
+      <c r="J211" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9610,7 +9625,7 @@
       <c r="I212">
         <v>92314</v>
       </c>
-      <c r="J212">
+      <c r="J212" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9642,7 +9657,7 @@
       <c r="I213">
         <v>92314</v>
       </c>
-      <c r="J213">
+      <c r="J213" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9674,7 +9689,7 @@
       <c r="I214">
         <v>92314</v>
       </c>
-      <c r="J214">
+      <c r="J214" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9706,7 +9721,7 @@
       <c r="I215">
         <v>92314</v>
       </c>
-      <c r="J215">
+      <c r="J215" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9738,7 +9753,7 @@
       <c r="I216">
         <v>92314</v>
       </c>
-      <c r="J216">
+      <c r="J216" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9770,7 +9785,7 @@
       <c r="I217">
         <v>92314</v>
       </c>
-      <c r="J217">
+      <c r="J217" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9802,7 +9817,7 @@
       <c r="I218">
         <v>92314</v>
       </c>
-      <c r="J218">
+      <c r="J218" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9834,7 +9849,7 @@
       <c r="I219">
         <v>92314</v>
       </c>
-      <c r="J219">
+      <c r="J219" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9866,7 +9881,7 @@
       <c r="I220">
         <v>92314</v>
       </c>
-      <c r="J220">
+      <c r="J220" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9898,7 +9913,7 @@
       <c r="I221">
         <v>92314</v>
       </c>
-      <c r="J221">
+      <c r="J221" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9930,7 +9945,7 @@
       <c r="I222">
         <v>92314</v>
       </c>
-      <c r="J222">
+      <c r="J222" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9962,7 +9977,7 @@
       <c r="I223">
         <v>92314</v>
       </c>
-      <c r="J223">
+      <c r="J223" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9994,7 +10009,7 @@
       <c r="I224">
         <v>92314</v>
       </c>
-      <c r="J224">
+      <c r="J224" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10026,7 +10041,7 @@
       <c r="I225">
         <v>92314</v>
       </c>
-      <c r="J225">
+      <c r="J225" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10058,7 +10073,7 @@
       <c r="I226">
         <v>92314</v>
       </c>
-      <c r="J226">
+      <c r="J226" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10090,7 +10105,7 @@
       <c r="I227">
         <v>92314</v>
       </c>
-      <c r="J227">
+      <c r="J227" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10122,7 +10137,7 @@
       <c r="I228">
         <v>92314</v>
       </c>
-      <c r="J228">
+      <c r="J228" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10154,7 +10169,7 @@
       <c r="I229">
         <v>92314</v>
       </c>
-      <c r="J229">
+      <c r="J229" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10186,7 +10201,7 @@
       <c r="I230">
         <v>92314</v>
       </c>
-      <c r="J230">
+      <c r="J230" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10218,7 +10233,7 @@
       <c r="I231">
         <v>92314</v>
       </c>
-      <c r="J231">
+      <c r="J231" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10247,7 +10262,7 @@
       <c r="I232">
         <v>92314</v>
       </c>
-      <c r="J232">
+      <c r="J232" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10279,7 +10294,7 @@
       <c r="I233">
         <v>92314</v>
       </c>
-      <c r="J233">
+      <c r="J233" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10311,7 +10326,7 @@
       <c r="I234">
         <v>92314</v>
       </c>
-      <c r="J234">
+      <c r="J234" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10343,7 +10358,7 @@
       <c r="I235">
         <v>92314</v>
       </c>
-      <c r="J235">
+      <c r="J235" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10372,7 +10387,7 @@
       <c r="I236">
         <v>92314</v>
       </c>
-      <c r="J236">
+      <c r="J236" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10404,7 +10419,7 @@
       <c r="I237">
         <v>92314</v>
       </c>
-      <c r="J237">
+      <c r="J237" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10436,7 +10451,7 @@
       <c r="I238">
         <v>92314</v>
       </c>
-      <c r="J238">
+      <c r="J238" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10468,7 +10483,7 @@
       <c r="I239">
         <v>92314</v>
       </c>
-      <c r="J239">
+      <c r="J239" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10500,7 +10515,7 @@
       <c r="I240">
         <v>92314</v>
       </c>
-      <c r="J240">
+      <c r="J240" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10532,7 +10547,7 @@
       <c r="I241">
         <v>92314</v>
       </c>
-      <c r="J241">
+      <c r="J241" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10564,7 +10579,7 @@
       <c r="I242">
         <v>92314</v>
       </c>
-      <c r="J242">
+      <c r="J242" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10593,7 +10608,7 @@
       <c r="I243">
         <v>92314</v>
       </c>
-      <c r="J243">
+      <c r="J243" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10625,7 +10640,7 @@
       <c r="I244">
         <v>92314</v>
       </c>
-      <c r="J244">
+      <c r="J244" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10657,7 +10672,7 @@
       <c r="I245">
         <v>92314</v>
       </c>
-      <c r="J245">
+      <c r="J245" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10689,7 +10704,7 @@
       <c r="I246">
         <v>92314</v>
       </c>
-      <c r="J246">
+      <c r="J246" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10721,7 +10736,7 @@
       <c r="I247">
         <v>92314</v>
       </c>
-      <c r="J247">
+      <c r="J247" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10753,7 +10768,7 @@
       <c r="I248">
         <v>92314</v>
       </c>
-      <c r="J248">
+      <c r="J248" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10785,7 +10800,7 @@
       <c r="I249">
         <v>92315</v>
       </c>
-      <c r="J249">
+      <c r="J249" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10817,7 +10832,7 @@
       <c r="I250">
         <v>92315</v>
       </c>
-      <c r="J250">
+      <c r="J250" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10849,7 +10864,7 @@
       <c r="I251">
         <v>92315</v>
       </c>
-      <c r="J251">
+      <c r="J251" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10881,7 +10896,7 @@
       <c r="I252">
         <v>92315</v>
       </c>
-      <c r="J252">
+      <c r="J252" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10913,7 +10928,7 @@
       <c r="I253">
         <v>92315</v>
       </c>
-      <c r="J253">
+      <c r="J253" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10945,7 +10960,7 @@
       <c r="I254">
         <v>92315</v>
       </c>
-      <c r="J254">
+      <c r="J254" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10977,7 +10992,7 @@
       <c r="I255">
         <v>92315</v>
       </c>
-      <c r="J255">
+      <c r="J255" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11009,7 +11024,7 @@
       <c r="I256">
         <v>92315</v>
       </c>
-      <c r="J256">
+      <c r="J256" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11041,7 +11056,7 @@
       <c r="I257">
         <v>92315</v>
       </c>
-      <c r="J257">
+      <c r="J257" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11073,7 +11088,7 @@
       <c r="I258">
         <v>92315</v>
       </c>
-      <c r="J258">
+      <c r="J258" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11105,7 +11120,7 @@
       <c r="I259">
         <v>92315</v>
       </c>
-      <c r="J259">
+      <c r="J259" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11137,7 +11152,7 @@
       <c r="I260">
         <v>92315</v>
       </c>
-      <c r="J260">
+      <c r="J260" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11169,7 +11184,7 @@
       <c r="I261">
         <v>92315</v>
       </c>
-      <c r="J261">
+      <c r="J261" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11201,7 +11216,7 @@
       <c r="I262">
         <v>92315</v>
       </c>
-      <c r="J262">
+      <c r="J262" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11233,7 +11248,7 @@
       <c r="I263">
         <v>92315</v>
       </c>
-      <c r="J263">
+      <c r="J263" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11265,7 +11280,7 @@
       <c r="I264">
         <v>92315</v>
       </c>
-      <c r="J264">
+      <c r="J264" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11297,7 +11312,7 @@
       <c r="I265">
         <v>92315</v>
       </c>
-      <c r="J265">
+      <c r="J265" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11329,7 +11344,7 @@
       <c r="I266">
         <v>92315</v>
       </c>
-      <c r="J266">
+      <c r="J266" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11361,7 +11376,7 @@
       <c r="I267">
         <v>92315</v>
       </c>
-      <c r="J267">
+      <c r="J267" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11393,7 +11408,7 @@
       <c r="I268">
         <v>92315</v>
       </c>
-      <c r="J268">
+      <c r="J268" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11425,7 +11440,7 @@
       <c r="I269">
         <v>92315</v>
       </c>
-      <c r="J269">
+      <c r="J269" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11457,7 +11472,7 @@
       <c r="I270">
         <v>92315</v>
       </c>
-      <c r="J270">
+      <c r="J270" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11489,7 +11504,7 @@
       <c r="I271">
         <v>92315</v>
       </c>
-      <c r="J271">
+      <c r="J271" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11521,7 +11536,7 @@
       <c r="I272">
         <v>92315</v>
       </c>
-      <c r="J272">
+      <c r="J272" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11553,7 +11568,7 @@
       <c r="I273">
         <v>92315</v>
       </c>
-      <c r="J273">
+      <c r="J273" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11585,7 +11600,7 @@
       <c r="I274">
         <v>92315</v>
       </c>
-      <c r="J274">
+      <c r="J274" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11617,7 +11632,7 @@
       <c r="I275">
         <v>92315</v>
       </c>
-      <c r="J275">
+      <c r="J275" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11649,7 +11664,7 @@
       <c r="I276">
         <v>92315</v>
       </c>
-      <c r="J276">
+      <c r="J276" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11681,7 +11696,7 @@
       <c r="I277">
         <v>92315</v>
       </c>
-      <c r="J277">
+      <c r="J277" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11713,7 +11728,7 @@
       <c r="I278">
         <v>92315</v>
       </c>
-      <c r="J278">
+      <c r="J278" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11745,7 +11760,7 @@
       <c r="I279">
         <v>92315</v>
       </c>
-      <c r="J279">
+      <c r="J279" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11777,7 +11792,7 @@
       <c r="I280">
         <v>92315</v>
       </c>
-      <c r="J280">
+      <c r="J280" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11809,7 +11824,7 @@
       <c r="I281">
         <v>92315</v>
       </c>
-      <c r="J281">
+      <c r="J281" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11838,7 +11853,7 @@
       <c r="I282">
         <v>92315</v>
       </c>
-      <c r="J282">
+      <c r="J282" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11870,7 +11885,7 @@
       <c r="I283">
         <v>92315</v>
       </c>
-      <c r="J283">
+      <c r="J283" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11899,7 +11914,7 @@
       <c r="I284">
         <v>92315</v>
       </c>
-      <c r="J284">
+      <c r="J284" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11931,7 +11946,7 @@
       <c r="I285">
         <v>92315</v>
       </c>
-      <c r="J285">
+      <c r="J285" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11963,7 +11978,7 @@
       <c r="I286">
         <v>92315</v>
       </c>
-      <c r="J286">
+      <c r="J286" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11995,7 +12010,7 @@
       <c r="I287">
         <v>92315</v>
       </c>
-      <c r="J287">
+      <c r="J287" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12027,7 +12042,7 @@
       <c r="I288">
         <v>92315</v>
       </c>
-      <c r="J288">
+      <c r="J288" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12059,7 +12074,7 @@
       <c r="I289">
         <v>92315</v>
       </c>
-      <c r="J289">
+      <c r="J289" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12091,7 +12106,7 @@
       <c r="I290">
         <v>92315</v>
       </c>
-      <c r="J290">
+      <c r="J290" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12123,7 +12138,7 @@
       <c r="I291">
         <v>92315</v>
       </c>
-      <c r="J291">
+      <c r="J291" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12155,7 +12170,7 @@
       <c r="I292">
         <v>92315</v>
       </c>
-      <c r="J292">
+      <c r="J292" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12187,7 +12202,7 @@
       <c r="I293">
         <v>92315</v>
       </c>
-      <c r="J293">
+      <c r="J293" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12219,7 +12234,7 @@
       <c r="I294">
         <v>92315</v>
       </c>
-      <c r="J294">
+      <c r="J294" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12251,7 +12266,7 @@
       <c r="I295">
         <v>92315</v>
       </c>
-      <c r="J295">
+      <c r="J295" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12283,7 +12298,7 @@
       <c r="I296">
         <v>92315</v>
       </c>
-      <c r="J296">
+      <c r="J296" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12315,7 +12330,7 @@
       <c r="I297">
         <v>92315</v>
       </c>
-      <c r="J297">
+      <c r="J297" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12347,7 +12362,7 @@
       <c r="I298">
         <v>92315</v>
       </c>
-      <c r="J298">
+      <c r="J298" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12379,7 +12394,7 @@
       <c r="I299">
         <v>92315</v>
       </c>
-      <c r="J299">
+      <c r="J299" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12411,7 +12426,7 @@
       <c r="I300">
         <v>92315</v>
       </c>
-      <c r="J300">
+      <c r="J300" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12443,7 +12458,7 @@
       <c r="I301">
         <v>92315</v>
       </c>
-      <c r="J301">
+      <c r="J301" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12475,7 +12490,7 @@
       <c r="I302">
         <v>92315</v>
       </c>
-      <c r="J302">
+      <c r="J302" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12507,7 +12522,7 @@
       <c r="I303">
         <v>92315</v>
       </c>
-      <c r="J303">
+      <c r="J303" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12536,7 +12551,7 @@
       <c r="I304">
         <v>92315</v>
       </c>
-      <c r="J304">
+      <c r="J304" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12568,7 +12583,7 @@
       <c r="I305">
         <v>92315</v>
       </c>
-      <c r="J305">
+      <c r="J305" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12600,7 +12615,7 @@
       <c r="I306">
         <v>92315</v>
       </c>
-      <c r="J306">
+      <c r="J306" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12632,7 +12647,7 @@
       <c r="I307">
         <v>92315</v>
       </c>
-      <c r="J307">
+      <c r="J307" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12664,7 +12679,7 @@
       <c r="I308">
         <v>92315</v>
       </c>
-      <c r="J308">
+      <c r="J308" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12696,7 +12711,7 @@
       <c r="I309">
         <v>92315</v>
       </c>
-      <c r="J309">
+      <c r="J309" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12728,7 +12743,7 @@
       <c r="I310">
         <v>92315</v>
       </c>
-      <c r="J310">
+      <c r="J310" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12760,7 +12775,7 @@
       <c r="I311">
         <v>92315</v>
       </c>
-      <c r="J311">
+      <c r="J311" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12792,7 +12807,7 @@
       <c r="I312">
         <v>92315</v>
       </c>
-      <c r="J312">
+      <c r="J312" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12824,7 +12839,7 @@
       <c r="I313">
         <v>92315</v>
       </c>
-      <c r="J313">
+      <c r="J313" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12856,7 +12871,7 @@
       <c r="I314">
         <v>92315</v>
       </c>
-      <c r="J314">
+      <c r="J314" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12888,7 +12903,7 @@
       <c r="I315">
         <v>92315</v>
       </c>
-      <c r="J315">
+      <c r="J315" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12920,7 +12935,7 @@
       <c r="I316">
         <v>92315</v>
       </c>
-      <c r="J316">
+      <c r="J316" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12952,7 +12967,7 @@
       <c r="I317">
         <v>92315</v>
       </c>
-      <c r="J317">
+      <c r="J317" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12984,7 +12999,7 @@
       <c r="I318">
         <v>92315</v>
       </c>
-      <c r="J318">
+      <c r="J318" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13016,7 +13031,7 @@
       <c r="I319">
         <v>92315</v>
       </c>
-      <c r="J319">
+      <c r="J319" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13048,7 +13063,7 @@
       <c r="I320">
         <v>92315</v>
       </c>
-      <c r="J320">
+      <c r="J320" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13080,7 +13095,7 @@
       <c r="I321">
         <v>92315</v>
       </c>
-      <c r="J321">
+      <c r="J321" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13112,7 +13127,7 @@
       <c r="I322">
         <v>92315</v>
       </c>
-      <c r="J322">
+      <c r="J322" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13144,7 +13159,7 @@
       <c r="I323">
         <v>92315</v>
       </c>
-      <c r="J323">
+      <c r="J323" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13176,7 +13191,7 @@
       <c r="I324">
         <v>92315</v>
       </c>
-      <c r="J324">
+      <c r="J324" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13208,7 +13223,7 @@
       <c r="I325">
         <v>92315</v>
       </c>
-      <c r="J325">
+      <c r="J325" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13240,7 +13255,7 @@
       <c r="I326">
         <v>92315</v>
       </c>
-      <c r="J326">
+      <c r="J326" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13272,7 +13287,7 @@
       <c r="I327">
         <v>92315</v>
       </c>
-      <c r="J327">
+      <c r="J327" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13304,7 +13319,7 @@
       <c r="I328">
         <v>92315</v>
       </c>
-      <c r="J328">
+      <c r="J328" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13336,7 +13351,7 @@
       <c r="I329">
         <v>92315</v>
       </c>
-      <c r="J329">
+      <c r="J329" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13368,7 +13383,7 @@
       <c r="I330">
         <v>92315</v>
       </c>
-      <c r="J330">
+      <c r="J330" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13400,7 +13415,7 @@
       <c r="I331">
         <v>92315</v>
       </c>
-      <c r="J331">
+      <c r="J331" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13432,7 +13447,7 @@
       <c r="I332">
         <v>92315</v>
       </c>
-      <c r="J332">
+      <c r="J332" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13464,7 +13479,7 @@
       <c r="I333">
         <v>92315</v>
       </c>
-      <c r="J333">
+      <c r="J333" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13496,7 +13511,7 @@
       <c r="I334">
         <v>92315</v>
       </c>
-      <c r="J334">
+      <c r="J334" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13528,7 +13543,7 @@
       <c r="I335">
         <v>92315</v>
       </c>
-      <c r="J335">
+      <c r="J335" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13560,7 +13575,7 @@
       <c r="I336">
         <v>92315</v>
       </c>
-      <c r="J336">
+      <c r="J336" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13592,7 +13607,7 @@
       <c r="I337">
         <v>92315</v>
       </c>
-      <c r="J337">
+      <c r="J337" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13624,7 +13639,7 @@
       <c r="I338">
         <v>92315</v>
       </c>
-      <c r="J338">
+      <c r="J338" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13656,7 +13671,7 @@
       <c r="I339">
         <v>92315</v>
       </c>
-      <c r="J339">
+      <c r="J339" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13688,7 +13703,7 @@
       <c r="I340">
         <v>92315</v>
       </c>
-      <c r="J340">
+      <c r="J340" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13720,7 +13735,7 @@
       <c r="I341">
         <v>92315</v>
       </c>
-      <c r="J341">
+      <c r="J341" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13752,7 +13767,7 @@
       <c r="I342">
         <v>92315</v>
       </c>
-      <c r="J342">
+      <c r="J342" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13784,7 +13799,7 @@
       <c r="I343">
         <v>92315</v>
       </c>
-      <c r="J343">
+      <c r="J343" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13813,7 +13828,7 @@
       <c r="I344">
         <v>92315</v>
       </c>
-      <c r="J344">
+      <c r="J344" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13845,7 +13860,7 @@
       <c r="I345">
         <v>92315</v>
       </c>
-      <c r="J345">
+      <c r="J345" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13877,7 +13892,7 @@
       <c r="I346">
         <v>92315</v>
       </c>
-      <c r="J346">
+      <c r="J346" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13909,7 +13924,7 @@
       <c r="I347">
         <v>92315</v>
       </c>
-      <c r="J347">
+      <c r="J347" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13941,7 +13956,7 @@
       <c r="I348">
         <v>92315</v>
       </c>
-      <c r="J348">
+      <c r="J348" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13973,7 +13988,7 @@
       <c r="I349">
         <v>92315</v>
       </c>
-      <c r="J349">
+      <c r="J349" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14005,7 +14020,7 @@
       <c r="I350">
         <v>92315</v>
       </c>
-      <c r="J350">
+      <c r="J350" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14037,7 +14052,7 @@
       <c r="I351">
         <v>92315</v>
       </c>
-      <c r="J351">
+      <c r="J351" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14069,7 +14084,7 @@
       <c r="I352">
         <v>92315</v>
       </c>
-      <c r="J352">
+      <c r="J352" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14101,7 +14116,7 @@
       <c r="I353">
         <v>92315</v>
       </c>
-      <c r="J353">
+      <c r="J353" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14133,7 +14148,7 @@
       <c r="I354">
         <v>92315</v>
       </c>
-      <c r="J354">
+      <c r="J354" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14165,7 +14180,7 @@
       <c r="I355">
         <v>92252</v>
       </c>
-      <c r="J355">
+      <c r="J355" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14197,7 +14212,7 @@
       <c r="I356">
         <v>92252</v>
       </c>
-      <c r="J356">
+      <c r="J356" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14229,7 +14244,7 @@
       <c r="I357">
         <v>92252</v>
       </c>
-      <c r="J357">
+      <c r="J357" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14261,7 +14276,7 @@
       <c r="I358">
         <v>92252</v>
       </c>
-      <c r="J358">
+      <c r="J358" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14293,7 +14308,7 @@
       <c r="I359">
         <v>92252</v>
       </c>
-      <c r="J359">
+      <c r="J359" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14325,7 +14340,7 @@
       <c r="I360">
         <v>92252</v>
       </c>
-      <c r="J360">
+      <c r="J360" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14357,7 +14372,7 @@
       <c r="I361">
         <v>92252</v>
       </c>
-      <c r="J361">
+      <c r="J361" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14386,7 +14401,7 @@
       <c r="I362">
         <v>92252</v>
       </c>
-      <c r="J362">
+      <c r="J362" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14418,7 +14433,7 @@
       <c r="I363">
         <v>92252</v>
       </c>
-      <c r="J363">
+      <c r="J363" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14450,7 +14465,7 @@
       <c r="I364">
         <v>92252</v>
       </c>
-      <c r="J364">
+      <c r="J364" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14482,7 +14497,7 @@
       <c r="I365">
         <v>92252</v>
       </c>
-      <c r="J365">
+      <c r="J365" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14514,7 +14529,7 @@
       <c r="I366">
         <v>92252</v>
       </c>
-      <c r="J366">
+      <c r="J366" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14546,7 +14561,7 @@
       <c r="I367">
         <v>92252</v>
       </c>
-      <c r="J367">
+      <c r="J367" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14575,7 +14590,7 @@
       <c r="I368">
         <v>92252</v>
       </c>
-      <c r="J368">
+      <c r="J368" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14607,7 +14622,7 @@
       <c r="I369">
         <v>92252</v>
       </c>
-      <c r="J369">
+      <c r="J369" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14639,7 +14654,7 @@
       <c r="I370">
         <v>92284</v>
       </c>
-      <c r="J370">
+      <c r="J370" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14671,7 +14686,7 @@
       <c r="I371">
         <v>92284</v>
       </c>
-      <c r="J371">
+      <c r="J371" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14703,7 +14718,7 @@
       <c r="I372">
         <v>92284</v>
       </c>
-      <c r="J372">
+      <c r="J372" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14735,7 +14750,7 @@
       <c r="I373">
         <v>92284</v>
       </c>
-      <c r="J373">
+      <c r="J373" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14767,7 +14782,7 @@
       <c r="I374">
         <v>92284</v>
       </c>
-      <c r="J374">
+      <c r="J374" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14799,7 +14814,7 @@
       <c r="I375">
         <v>92284</v>
       </c>
-      <c r="J375">
+      <c r="J375" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14831,7 +14846,7 @@
       <c r="I376">
         <v>92284</v>
       </c>
-      <c r="J376">
+      <c r="J376" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14863,7 +14878,7 @@
       <c r="I377">
         <v>92284</v>
       </c>
-      <c r="J377">
+      <c r="J377" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14895,7 +14910,7 @@
       <c r="I378">
         <v>92284</v>
       </c>
-      <c r="J378">
+      <c r="J378" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14927,7 +14942,7 @@
       <c r="I379">
         <v>92284</v>
       </c>
-      <c r="J379">
+      <c r="J379" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14959,7 +14974,7 @@
       <c r="I380">
         <v>92284</v>
       </c>
-      <c r="J380">
+      <c r="J380" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14991,7 +15006,7 @@
       <c r="I381">
         <v>92284</v>
       </c>
-      <c r="J381">
+      <c r="J381" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15023,7 +15038,7 @@
       <c r="I382">
         <v>92284</v>
       </c>
-      <c r="J382">
+      <c r="J382" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15055,7 +15070,7 @@
       <c r="I383">
         <v>92284</v>
       </c>
-      <c r="J383">
+      <c r="J383" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15087,12 +15102,12 @@
       <c r="I384">
         <v>92284</v>
       </c>
-      <c r="J384">
+      <c r="J384" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:I384"/>
+  <autoFilter ref="G1:I384" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>